--- a/mini_project_Q3.xlsx
+++ b/mini_project_Q3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gia_b\.azuredatastudio\repo\Comm2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C3C5C2-C0F9-4F2C-BE58-9A79A3F9F96C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EA6E8-37C8-48C3-A6DE-147ACF9C6A1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D7DE6D59-32F8-4552-9100-EFAA33AFEF31}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CompanyName</t>
   </si>
@@ -126,13 +126,17 @@
   <si>
     <t>Ship Days</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,\K;\-&quot;£&quot;#,\K"/>
+    <numFmt numFmtId="168" formatCode="mmm\ \'yy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -163,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +282,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -292,6 +299,1072 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AA6A-44EA-9D36-D7C899F28044}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -308,7 +1381,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -435,7 +1508,7 @@
             <c:numRef>
               <c:f>'Q3.2'!$B$2:$B$27</c:f>
               <c:numCache>
-                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:formatCode>"£"#,\K;\-"£"#,\K</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>153691.28</c:v>
@@ -621,7 +1694,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;£&quot;#,\K;\-&quot;£&quot;#,\K" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -804,7 +1877,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q3.4'!$C$1</c:f>
+              <c:f>'Q3.4'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,13 +2060,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Q3.4'!$C$2:$C$24</c15:sqref>
+                    <c15:sqref>'Q3.4'!$D$2:$D$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Q3.4'!$C$3:$C$24</c:f>
+              <c:f>'Q3.4'!$D$3:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
@@ -1155,7 +2228,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1229,6 +2302,456 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Ship Time(Days) by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3.4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ship Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Q3.4'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\ \'yy</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3.4'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.0454539999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.608695000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5161290000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9696960000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3103440000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.15625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6969689999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7878780000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.135135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7105259999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7352939999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8541659999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0545449999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2222220000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3972599999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6507930000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64B4-4B00-88CD-AF8D024E8B2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="577841344"/>
+        <c:axId val="577841672"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="577841344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="mmm\ \'yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577841672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="577841672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577841344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1353,6 +2876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -2439,20 +4002,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2484,16 +4563,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2513,6 +4592,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F5B75A-937B-4AD7-BAB1-8FAEFED9BB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2820,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB70D1F-0869-45B9-8488-BA6A9DFF04E2}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,26 +5163,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C86061-13B6-444B-8CE8-BF5B51E69FE2}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3075,10 +5192,13 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -3086,10 +5206,14 @@
         <v>1996</v>
       </c>
       <c r="C2" s="2">
+        <f>DATE(B2,A2,1)</f>
+        <v>35247</v>
+      </c>
+      <c r="D2" s="3">
         <v>8.0454539999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -3097,10 +5221,14 @@
         <v>1996</v>
       </c>
       <c r="C3" s="2">
+        <f t="shared" ref="C3:C24" si="0">DATE(B3,A3,1)</f>
+        <v>35278</v>
+      </c>
+      <c r="D3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3108,10 +5236,14 @@
         <v>1996</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>35309</v>
+      </c>
+      <c r="D4" s="3">
         <v>10.608695000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3119,10 +5251,14 @@
         <v>1996</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>35339</v>
+      </c>
+      <c r="D5" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -3130,10 +5266,14 @@
         <v>1996</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>35370</v>
+      </c>
+      <c r="D6" s="3">
         <v>8.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -3141,10 +5281,14 @@
         <v>1996</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>35400</v>
+      </c>
+      <c r="D7" s="3">
         <v>7.5161290000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3152,10 +5296,14 @@
         <v>1997</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>35431</v>
+      </c>
+      <c r="D8" s="3">
         <v>9.9696960000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3163,10 +5311,14 @@
         <v>1997</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>35462</v>
+      </c>
+      <c r="D9" s="3">
         <v>9.3103440000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3174,10 +5326,14 @@
         <v>1997</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>35490</v>
+      </c>
+      <c r="D10" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3185,10 +5341,14 @@
         <v>1997</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>35521</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3196,10 +5356,14 @@
         <v>1997</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>35551</v>
+      </c>
+      <c r="D12" s="3">
         <v>9.15625</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3207,10 +5371,14 @@
         <v>1997</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>35582</v>
+      </c>
+      <c r="D13" s="3">
         <v>8.8333329999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3218,10 +5386,14 @@
         <v>1997</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>35612</v>
+      </c>
+      <c r="D14" s="3">
         <v>8.6969689999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3229,10 +5401,14 @@
         <v>1997</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>35643</v>
+      </c>
+      <c r="D15" s="3">
         <v>6.7878780000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3240,10 +5416,14 @@
         <v>1997</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>35674</v>
+      </c>
+      <c r="D16" s="3">
         <v>9.135135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -3251,10 +5431,14 @@
         <v>1997</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>35704</v>
+      </c>
+      <c r="D17" s="3">
         <v>8.7105259999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -3262,10 +5446,14 @@
         <v>1997</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>35735</v>
+      </c>
+      <c r="D18" s="3">
         <v>8.7352939999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -3273,10 +5461,14 @@
         <v>1997</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>35765</v>
+      </c>
+      <c r="D19" s="3">
         <v>9.8541659999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3284,10 +5476,14 @@
         <v>1998</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>35796</v>
+      </c>
+      <c r="D20" s="3">
         <v>9.0545449999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3295,10 +5491,14 @@
         <v>1998</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>35827</v>
+      </c>
+      <c r="D21" s="3">
         <v>7.2222220000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3306,10 +5506,14 @@
         <v>1998</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>35855</v>
+      </c>
+      <c r="D22" s="3">
         <v>9.3972599999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3317,10 +5521,14 @@
         <v>1998</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>35886</v>
+      </c>
+      <c r="D23" s="3">
         <v>6.6507930000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3328,6 +5536,10 @@
         <v>1998</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>35916</v>
+      </c>
+      <c r="D24" s="3">
         <v>2.5</v>
       </c>
     </row>
